--- a/과제/0226/for루프문_과제.xlsx
+++ b/과제/0226/for루프문_과제.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Workspace_Flutter\fullstack_dev\JavaStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Workspace_Flutter\fullstack_dev\과제\0226\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D5F05-1C0A-4FA7-943F-81DFFD300667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB605F1-958E-48F4-AE5B-09E5D56A1230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C9B3580-C549-4666-84EA-7FCE279812BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C9B3580-C549-4666-84EA-7FCE279812BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -252,15 +252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -535,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,112 +554,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,15 +1577,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730FEC2-15FD-4FFE-842D-1B0E1627D8D9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9:AL12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="2.875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.5" bestFit="1" customWidth="1"/>
@@ -1620,191 +1611,191 @@
     <col min="51" max="57" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:48" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:48" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>3</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>4</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>5</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="29">
         <v>1</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="30">
         <v>2</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="30">
         <v>3</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="30">
         <v>4</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="30">
         <v>5</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="30">
         <v>6</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="30">
         <v>7</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="30">
         <v>8</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="30">
         <v>9</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="34">
         <v>10</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <v>1</v>
       </c>
-      <c r="AB3" s="31">
+      <c r="AB3" s="30">
         <v>2</v>
       </c>
-      <c r="AC3" s="31">
+      <c r="AC3" s="30">
         <v>3</v>
       </c>
-      <c r="AD3" s="31">
+      <c r="AD3" s="30">
         <v>4</v>
       </c>
-      <c r="AE3" s="31">
+      <c r="AE3" s="30">
         <v>5</v>
       </c>
-      <c r="AF3" s="31">
+      <c r="AF3" s="30">
         <v>6</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AG3" s="30">
         <v>7</v>
       </c>
-      <c r="AH3" s="31">
+      <c r="AH3" s="30">
         <v>8</v>
       </c>
-      <c r="AI3" s="31">
+      <c r="AI3" s="30">
         <v>9</v>
       </c>
-      <c r="AJ3" s="35">
+      <c r="AJ3" s="34">
         <v>10</v>
       </c>
-      <c r="AL3" s="29" t="s">
+      <c r="AL3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AM3" s="29">
         <v>1</v>
       </c>
-      <c r="AN3" s="31">
+      <c r="AN3" s="30">
         <v>2</v>
       </c>
-      <c r="AO3" s="31">
+      <c r="AO3" s="30">
         <v>3</v>
       </c>
-      <c r="AP3" s="31">
+      <c r="AP3" s="30">
         <v>4</v>
       </c>
-      <c r="AQ3" s="31">
+      <c r="AQ3" s="30">
         <v>5</v>
       </c>
-      <c r="AR3" s="31">
+      <c r="AR3" s="30">
         <v>6</v>
       </c>
-      <c r="AS3" s="31">
+      <c r="AS3" s="30">
         <v>7</v>
       </c>
-      <c r="AT3" s="31">
+      <c r="AT3" s="30">
         <v>8</v>
       </c>
-      <c r="AU3" s="31">
+      <c r="AU3" s="30">
         <v>9</v>
       </c>
-      <c r="AV3" s="35">
+      <c r="AV3" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="28"/>
-      <c r="N4" s="24">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="N4" s="23">
         <v>5</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="28"/>
-      <c r="Z4" s="38">
+      <c r="O4" s="42"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="27"/>
+      <c r="Z4" s="37">
         <v>1</v>
       </c>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="28"/>
-      <c r="AL4" s="24">
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="27"/>
+      <c r="AL4" s="23">
         <v>5</v>
       </c>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="28"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="27"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -1813,11 +1804,11 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="10"/>
-      <c r="N5" s="21">
+      <c r="L5" s="9"/>
+      <c r="N5" s="20">
         <v>4</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="3"/>
@@ -1826,11 +1817,11 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="10"/>
-      <c r="Z5" s="39">
+      <c r="X5" s="9"/>
+      <c r="Z5" s="38">
         <v>2</v>
       </c>
-      <c r="AA5" s="18"/>
+      <c r="AA5" s="17"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -1839,11 +1830,11 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="10"/>
-      <c r="AL5" s="21">
+      <c r="AJ5" s="9"/>
+      <c r="AL5" s="20">
         <v>4</v>
       </c>
-      <c r="AM5" s="18"/>
+      <c r="AM5" s="17"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="3"/>
@@ -1852,13 +1843,13 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
-      <c r="AV5" s="10"/>
+      <c r="AV5" s="9"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1867,11 +1858,11 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="10"/>
-      <c r="N6" s="21">
+      <c r="L6" s="9"/>
+      <c r="N6" s="20">
         <v>3</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1880,11 +1871,11 @@
       <c r="U6" s="3"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="10"/>
-      <c r="Z6" s="39">
+      <c r="X6" s="9"/>
+      <c r="Z6" s="38">
         <v>3</v>
       </c>
-      <c r="AA6" s="18"/>
+      <c r="AA6" s="17"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -1893,11 +1884,11 @@
       <c r="AG6" s="4"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="10"/>
-      <c r="AL6" s="21">
+      <c r="AJ6" s="9"/>
+      <c r="AL6" s="20">
         <v>3</v>
       </c>
-      <c r="AM6" s="18"/>
+      <c r="AM6" s="17"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
@@ -1906,13 +1897,13 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
-      <c r="AV6" s="10"/>
+      <c r="AV6" s="9"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1921,11 +1912,11 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="10"/>
-      <c r="N7" s="21">
+      <c r="L7" s="9"/>
+      <c r="N7" s="20">
         <v>2</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1934,11 +1925,11 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="10"/>
-      <c r="Z7" s="39">
+      <c r="X7" s="9"/>
+      <c r="Z7" s="38">
         <v>4</v>
       </c>
-      <c r="AA7" s="18"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="4"/>
@@ -1947,11 +1938,11 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="10"/>
-      <c r="AL7" s="21">
+      <c r="AJ7" s="9"/>
+      <c r="AL7" s="20">
         <v>2</v>
       </c>
-      <c r="AM7" s="18"/>
+      <c r="AM7" s="17"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
@@ -1960,13 +1951,13 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="2"/>
-      <c r="AV7" s="10"/>
+      <c r="AV7" s="9"/>
     </row>
     <row r="8" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <v>1</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1975,11 +1966,11 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="10"/>
-      <c r="N8" s="42">
+      <c r="L8" s="9"/>
+      <c r="N8" s="41">
         <v>1</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1988,11 +1979,11 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="10"/>
-      <c r="Z8" s="40">
+      <c r="X8" s="9"/>
+      <c r="Z8" s="39">
         <v>5</v>
       </c>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="17"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -2001,11 +1992,11 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="10"/>
-      <c r="AL8" s="42">
+      <c r="AJ8" s="9"/>
+      <c r="AL8" s="41">
         <v>1</v>
       </c>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="18"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
@@ -2014,10 +2005,10 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="10"/>
+      <c r="AV8" s="9"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2027,8 +2018,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="10"/>
-      <c r="N9" s="41"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2038,8 +2029,8 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="10"/>
-      <c r="Z9" s="37"/>
+      <c r="X9" s="9"/>
+      <c r="Z9" s="36"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -2049,11 +2040,11 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="10"/>
-      <c r="AL9" s="44">
+      <c r="AJ9" s="9"/>
+      <c r="AL9" s="43">
         <v>2</v>
       </c>
-      <c r="AM9" s="18"/>
+      <c r="AM9" s="17"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
@@ -2062,10 +2053,10 @@
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="2"/>
-      <c r="AV9" s="10"/>
+      <c r="AV9" s="9"/>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2075,8 +2066,8 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="10"/>
-      <c r="N10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2086,8 +2077,8 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="10"/>
-      <c r="Z10" s="15"/>
+      <c r="X10" s="9"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -2097,11 +2088,11 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="10"/>
-      <c r="AL10" s="39">
+      <c r="AJ10" s="9"/>
+      <c r="AL10" s="38">
         <v>3</v>
       </c>
-      <c r="AM10" s="18"/>
+      <c r="AM10" s="17"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
@@ -2110,10 +2101,10 @@
       <c r="AS10" s="4"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
-      <c r="AV10" s="10"/>
+      <c r="AV10" s="9"/>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2123,8 +2114,8 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="10"/>
-      <c r="N11" s="11"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2134,8 +2125,8 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="10"/>
-      <c r="Z11" s="15"/>
+      <c r="X11" s="9"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -2145,11 +2136,11 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="10"/>
-      <c r="AL11" s="39">
+      <c r="AJ11" s="9"/>
+      <c r="AL11" s="38">
         <v>4</v>
       </c>
-      <c r="AM11" s="18"/>
+      <c r="AM11" s="17"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="4"/>
@@ -2158,55 +2149,55 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
-      <c r="AV11" s="10"/>
+      <c r="AV11" s="9"/>
     </row>
     <row r="12" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="14"/>
-      <c r="AL12" s="40">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="13"/>
+      <c r="AL12" s="39">
         <v>5</v>
       </c>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="14"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="13"/>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -2251,7 +2242,7 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="9"/>
+      <c r="AL15" s="7"/>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
@@ -2290,7 +2281,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="9"/>
+      <c r="AL16" s="7"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
@@ -2329,7 +2320,7 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="9"/>
+      <c r="AL17" s="7"/>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
@@ -2368,7 +2359,7 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="9"/>
+      <c r="AL18" s="7"/>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
@@ -2407,7 +2398,7 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="9"/>
+      <c r="AL19" s="7"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
@@ -2446,7 +2437,7 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="9"/>
+      <c r="AL20" s="7"/>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
@@ -2456,8 +2447,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>